--- a/biology/Zoologie/Elaphe_climacophora/Elaphe_climacophora.xlsx
+++ b/biology/Zoologie/Elaphe_climacophora/Elaphe_climacophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elaphe climacophora (nom vernaculaire japonais : Aodaishō) est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elaphe climacophora (nom vernaculaire japonais : Aodaishō) est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Japon, sur les îles Hokkaidō, Honshū, Kyūshū, Ryūkyū, Tanegashima, Tsushima, Shikoku et Yakushima ;
 en Russie, sur les îles Kouriles.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elaphe climacophora mesure entre 100 et 160 cm. Son dos varie du jaune pâle au vert foncé ou au bleu-vert. Les juvéniles présentent des bandes brunes. Il s'agit d'un serpent diurne non venimeux.
 Cette espèce hiberne pendant trois ou quatre mois par an. L'accouplement a lieu au printemps et la femelle pond 7 à 20 œufs en début d'été.
@@ -576,7 +592,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se nourrit principalement de rongeurs,oiseaux, amphibiens et lézards. Elle peut également se nourrir d'oeufs qu'elle casse en les avalant avec des vertébres modifiées
 </t>
@@ -607,7 +625,9 @@
           <t>Prédateurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a pour principaux prédateurs le raton laveur, l'Aigle royal, le sanglier, les corvidés. Attaquée par un prédateur, il lui arrive de plonger pour se réfugier au fond d'une rivière. Les juvéniles sont souvent la proie de Elaphe quadrivirgata.
 </t>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Boie, 1826 : Merkmale einiger japanischer Lurche. Isis von Oken, vol. 19, p. 203-216 (texte intégral).</t>
         </is>
